--- a/wykresy.xlsx
+++ b/wykresy.xlsx
@@ -294,11 +294,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="100506240"/>
-        <c:axId val="100528512"/>
+        <c:axId val="134089344"/>
+        <c:axId val="135160192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100506240"/>
+        <c:axId val="134089344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -307,7 +307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100528512"/>
+        <c:crossAx val="135160192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -315,7 +315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100528512"/>
+        <c:axId val="135160192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -326,7 +326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100506240"/>
+        <c:crossAx val="134089344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -417,11 +417,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="100577280"/>
-        <c:axId val="100578816"/>
+        <c:axId val="135179648"/>
+        <c:axId val="136320128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100577280"/>
+        <c:axId val="135179648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,7 +430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100578816"/>
+        <c:crossAx val="136320128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -438,7 +438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100578816"/>
+        <c:axId val="136320128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100577280"/>
+        <c:crossAx val="135179648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -533,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="100594432"/>
-        <c:axId val="100595968"/>
+        <c:axId val="136343936"/>
+        <c:axId val="136345472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100594432"/>
+        <c:axId val="136343936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100595968"/>
+        <c:crossAx val="136345472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -554,7 +554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100595968"/>
+        <c:axId val="136345472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100594432"/>
+        <c:crossAx val="136343936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -583,6 +583,131 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22179396325459319"/>
+          <c:y val="7.4548702245552628E-2"/>
+          <c:w val="0.77715135608048991"/>
+          <c:h val="0.77611475648877226"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Testy jednostkowe 1'!$O$4:$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Wersja pierwotna 
+(czas w sekundach)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Wersja poprawiona
+(czas w sekundach)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Testy jednostkowe 1'!$P$4:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="63751680"/>
+        <c:axId val="63753216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="63751680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63753216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="63753216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63751680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -2662,6 +2787,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C6D89B21-212D-4CD2-90AD-05404936679C}" type="pres">
       <dgm:prSet presAssocID="{4EB8A445-F715-4A25-BE44-EF2F94BFDCA8}" presName="root1" presStyleCnt="0"/>
@@ -2674,6 +2806,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D0872117-87B2-4F34-AA8D-B42E7D53AB08}" type="pres">
       <dgm:prSet presAssocID="{4EB8A445-F715-4A25-BE44-EF2F94BFDCA8}" presName="level2hierChild" presStyleCnt="0"/>
@@ -2682,10 +2821,24 @@
     <dgm:pt modelId="{3076C66A-9E6B-4B86-A479-9884CC94C7E1}" type="pres">
       <dgm:prSet presAssocID="{2ADC7F0D-A344-41F5-B4C8-439EC9216185}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FACCE52F-8F06-4DF4-B784-08FDD7532807}" type="pres">
       <dgm:prSet presAssocID="{2ADC7F0D-A344-41F5-B4C8-439EC9216185}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{40476E8F-F23B-4001-90A3-93B69B04DCFF}" type="pres">
       <dgm:prSet presAssocID="{D83E6B45-7284-442C-8A9D-5331363BDC08}" presName="root2" presStyleCnt="0"/>
@@ -2698,6 +2851,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F0713F41-61BD-495C-847E-E8BFEF4E44C6}" type="pres">
       <dgm:prSet presAssocID="{D83E6B45-7284-442C-8A9D-5331363BDC08}" presName="level3hierChild" presStyleCnt="0"/>
@@ -2706,10 +2866,24 @@
     <dgm:pt modelId="{949E8F55-A231-48DB-99D4-509D6F3671C8}" type="pres">
       <dgm:prSet presAssocID="{4081D7F2-0A17-44C3-A504-9A4F8E317C21}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{85CB897E-6D32-4ACE-BB64-63A3B378FBCE}" type="pres">
       <dgm:prSet presAssocID="{4081D7F2-0A17-44C3-A504-9A4F8E317C21}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9D3E6A12-E687-4875-B207-C23ED1BD9101}" type="pres">
       <dgm:prSet presAssocID="{B2D1A57A-7C5D-4D19-87BE-F5C2F18A88D8}" presName="root2" presStyleCnt="0"/>
@@ -2722,6 +2896,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{09E69F7F-E17C-4782-9540-FF458DB371FB}" type="pres">
       <dgm:prSet presAssocID="{B2D1A57A-7C5D-4D19-87BE-F5C2F18A88D8}" presName="level3hierChild" presStyleCnt="0"/>
@@ -2730,10 +2911,24 @@
     <dgm:pt modelId="{4579D9E2-D846-41E6-A935-A5A1EDBDD1C6}" type="pres">
       <dgm:prSet presAssocID="{C48B61D6-CF34-45C8-8480-EC4D7DD9F33B}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3995C48A-89DF-41E2-A267-39EDAFECB947}" type="pres">
       <dgm:prSet presAssocID="{C48B61D6-CF34-45C8-8480-EC4D7DD9F33B}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6ED6FFA1-B242-40D3-9727-E427163C752E}" type="pres">
       <dgm:prSet presAssocID="{85E1EA2F-97B7-4926-9BA1-4FE393218AA7}" presName="root2" presStyleCnt="0"/>
@@ -2746,6 +2941,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DA09279A-0836-4F52-AA80-0C3CF954039F}" type="pres">
       <dgm:prSet presAssocID="{85E1EA2F-97B7-4926-9BA1-4FE393218AA7}" presName="level3hierChild" presStyleCnt="0"/>
@@ -2754,10 +2956,24 @@
     <dgm:pt modelId="{BCACAF42-43B5-48DC-9628-AF52DD1B7E7B}" type="pres">
       <dgm:prSet presAssocID="{3078D6A8-9728-49D0-A6E2-489E23DD6C20}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{507925DA-742C-4834-934F-2E38B20EA592}" type="pres">
       <dgm:prSet presAssocID="{3078D6A8-9728-49D0-A6E2-489E23DD6C20}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FB79060D-826E-490F-84A3-CFE5400AEF1D}" type="pres">
       <dgm:prSet presAssocID="{0E25B7F3-1D98-462B-889F-858A877CB8E4}" presName="root2" presStyleCnt="0"/>
@@ -2770,6 +2986,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{73D00478-4599-434B-B813-A3BD601FFFC0}" type="pres">
       <dgm:prSet presAssocID="{0E25B7F3-1D98-462B-889F-858A877CB8E4}" presName="level3hierChild" presStyleCnt="0"/>
@@ -2778,10 +3001,24 @@
     <dgm:pt modelId="{9B53EA88-9045-43B4-8E34-F6C51F695CF6}" type="pres">
       <dgm:prSet presAssocID="{40FC9754-B001-4F90-BDE7-8204A7C05729}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E1DC3FCB-4E8F-47F9-8DA5-09E2E4D23206}" type="pres">
       <dgm:prSet presAssocID="{40FC9754-B001-4F90-BDE7-8204A7C05729}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5561D374-1329-4806-8A86-9289C8F84A79}" type="pres">
       <dgm:prSet presAssocID="{AE275FA5-0E87-4345-847B-B571B83F6FFC}" presName="root2" presStyleCnt="0"/>
@@ -2794,6 +3031,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{647589A4-E8CF-41B7-ABA4-B838D35A4DFA}" type="pres">
       <dgm:prSet presAssocID="{AE275FA5-0E87-4345-847B-B571B83F6FFC}" presName="level3hierChild" presStyleCnt="0"/>
@@ -2802,10 +3046,24 @@
     <dgm:pt modelId="{B66E5A50-30FA-43D4-933D-E47078BEDB32}" type="pres">
       <dgm:prSet presAssocID="{379E2B01-CFBA-4DD3-B80B-542CE00C9C9D}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A08494A2-24E4-4D69-BE0F-E8E3CCFAED1C}" type="pres">
       <dgm:prSet presAssocID="{379E2B01-CFBA-4DD3-B80B-542CE00C9C9D}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3F1CA58B-5143-440D-9177-3D3D17C460F2}" type="pres">
       <dgm:prSet presAssocID="{C160B513-D185-4548-ADBE-3203E9029082}" presName="root2" presStyleCnt="0"/>
@@ -2818,6 +3076,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{266855A9-90DC-4975-AD47-4F3FFD31BE45}" type="pres">
       <dgm:prSet presAssocID="{C160B513-D185-4548-ADBE-3203E9029082}" presName="level3hierChild" presStyleCnt="0"/>
@@ -2826,10 +3091,24 @@
     <dgm:pt modelId="{5A040D0C-E10F-4235-9BB3-55F83845E8D3}" type="pres">
       <dgm:prSet presAssocID="{19F84578-FF06-4343-8356-6A02A57A357D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{78BDA40F-5185-4263-95CC-2EBA3D643EE8}" type="pres">
       <dgm:prSet presAssocID="{19F84578-FF06-4343-8356-6A02A57A357D}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{77A90116-2F3F-40B6-8A9C-358494E088F4}" type="pres">
       <dgm:prSet presAssocID="{9981BD1E-7810-4CCA-BBBB-AB2AE058EBB4}" presName="root2" presStyleCnt="0"/>
@@ -2856,37 +3135,37 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{95BCCF14-14D1-4A0E-8D0E-5D0B4EB0B595}" type="presOf" srcId="{85E1EA2F-97B7-4926-9BA1-4FE393218AA7}" destId="{69289850-03CB-4354-A06C-C3B2C7DA33EB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{EF61BD9E-2A97-485F-A006-DB3CE5FD730F}" srcId="{D83E6B45-7284-442C-8A9D-5331363BDC08}" destId="{B2D1A57A-7C5D-4D19-87BE-F5C2F18A88D8}" srcOrd="0" destOrd="0" parTransId="{4081D7F2-0A17-44C3-A504-9A4F8E317C21}" sibTransId="{118BBFA6-DEC4-40EA-84CA-F50C1BA70601}"/>
+    <dgm:cxn modelId="{FC3AE0FC-7F39-491E-BC5F-4FEF060AAC7F}" srcId="{0E25B7F3-1D98-462B-889F-858A877CB8E4}" destId="{C160B513-D185-4548-ADBE-3203E9029082}" srcOrd="1" destOrd="0" parTransId="{379E2B01-CFBA-4DD3-B80B-542CE00C9C9D}" sibTransId="{62D21CD7-232F-47ED-A1F6-15ABA9FD4355}"/>
+    <dgm:cxn modelId="{A1E0A08A-1040-441F-9BB1-510368C3F19C}" type="presOf" srcId="{C48B61D6-CF34-45C8-8480-EC4D7DD9F33B}" destId="{3995C48A-89DF-41E2-A267-39EDAFECB947}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{9E4B7F61-282C-40DC-B884-473041B526FC}" type="presOf" srcId="{19F84578-FF06-4343-8356-6A02A57A357D}" destId="{78BDA40F-5185-4263-95CC-2EBA3D643EE8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{A10BC3E4-5E50-48DA-B0CE-950B5B6957FA}" type="presOf" srcId="{4081D7F2-0A17-44C3-A504-9A4F8E317C21}" destId="{949E8F55-A231-48DB-99D4-509D6F3671C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{29377B2C-DEA1-4F18-94E2-D74D5895561E}" srcId="{97405587-9C85-439F-BA52-E195C2E63210}" destId="{4EB8A445-F715-4A25-BE44-EF2F94BFDCA8}" srcOrd="0" destOrd="0" parTransId="{FBB54084-A13F-4972-B57B-6436FC56FB75}" sibTransId="{6CC4F6D9-0DF2-45DE-9CAA-E74C4715C0EC}"/>
+    <dgm:cxn modelId="{5864FB6B-0954-423C-868D-830A0A6D3EF8}" srcId="{D83E6B45-7284-442C-8A9D-5331363BDC08}" destId="{85E1EA2F-97B7-4926-9BA1-4FE393218AA7}" srcOrd="1" destOrd="0" parTransId="{C48B61D6-CF34-45C8-8480-EC4D7DD9F33B}" sibTransId="{36A3D720-01F4-40D8-B6E0-0FE2715AAB33}"/>
+    <dgm:cxn modelId="{1E566038-FFF9-4D99-8B27-17F87D2B614B}" srcId="{4EB8A445-F715-4A25-BE44-EF2F94BFDCA8}" destId="{0E25B7F3-1D98-462B-889F-858A877CB8E4}" srcOrd="1" destOrd="0" parTransId="{3078D6A8-9728-49D0-A6E2-489E23DD6C20}" sibTransId="{784671B3-3A0B-42E2-A3B0-513933FE740F}"/>
+    <dgm:cxn modelId="{8358F5A5-6EF1-4C52-8E06-B2E5DBD22D83}" type="presOf" srcId="{3078D6A8-9728-49D0-A6E2-489E23DD6C20}" destId="{BCACAF42-43B5-48DC-9628-AF52DD1B7E7B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{830F79B7-B660-4604-96F0-3B9113DBBDCA}" type="presOf" srcId="{97405587-9C85-439F-BA52-E195C2E63210}" destId="{D9958D3A-7FED-4F02-878D-A2D70BD20A37}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{7F158D40-897D-4326-9861-BC10A62A6717}" srcId="{0E25B7F3-1D98-462B-889F-858A877CB8E4}" destId="{AE275FA5-0E87-4345-847B-B571B83F6FFC}" srcOrd="0" destOrd="0" parTransId="{40FC9754-B001-4F90-BDE7-8204A7C05729}" sibTransId="{8A11DF86-F281-48DD-8164-60D1BA91B3BF}"/>
+    <dgm:cxn modelId="{396ED208-0BD8-440A-AECE-7A1ECA34F114}" type="presOf" srcId="{4081D7F2-0A17-44C3-A504-9A4F8E317C21}" destId="{85CB897E-6D32-4ACE-BB64-63A3B378FBCE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{CE874B46-B6E7-4E03-A74C-4A0F74E77EEB}" type="presOf" srcId="{2ADC7F0D-A344-41F5-B4C8-439EC9216185}" destId="{3076C66A-9E6B-4B86-A479-9884CC94C7E1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{E3094A48-21E4-4AF4-A823-4183429BE3A9}" srcId="{4EB8A445-F715-4A25-BE44-EF2F94BFDCA8}" destId="{9981BD1E-7810-4CCA-BBBB-AB2AE058EBB4}" srcOrd="2" destOrd="0" parTransId="{19F84578-FF06-4343-8356-6A02A57A357D}" sibTransId="{E356D695-C98C-4CE1-AE46-593EDB4FBE36}"/>
     <dgm:cxn modelId="{FCCB072E-E64F-4BED-9E5D-BA0569A61087}" type="presOf" srcId="{AE275FA5-0E87-4345-847B-B571B83F6FFC}" destId="{C42B12E7-01C7-4244-96B2-2DB3DF23510D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{79B5E057-E529-4192-9266-BEC8919D9A8B}" type="presOf" srcId="{379E2B01-CFBA-4DD3-B80B-542CE00C9C9D}" destId="{B66E5A50-30FA-43D4-933D-E47078BEDB32}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{ABEB2F9F-C30E-4406-980E-0CEF7834D418}" type="presOf" srcId="{0E25B7F3-1D98-462B-889F-858A877CB8E4}" destId="{24BB20D3-9810-46C7-BE75-31F9B0FEA917}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{28E059F6-2921-4656-B3F8-72F895CD7774}" type="presOf" srcId="{19F84578-FF06-4343-8356-6A02A57A357D}" destId="{5A040D0C-E10F-4235-9BB3-55F83845E8D3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{63BF7FEA-70E8-4C21-9DF2-E14E4B9C5DCB}" type="presOf" srcId="{9981BD1E-7810-4CCA-BBBB-AB2AE058EBB4}" destId="{BAF67EE1-29BF-4FB9-9F6C-E04E8BAB9304}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{C5ABD69F-A965-40FB-8FB5-C9A60EFE5AC4}" type="presOf" srcId="{40FC9754-B001-4F90-BDE7-8204A7C05729}" destId="{9B53EA88-9045-43B4-8E34-F6C51F695CF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{B496AEFF-56A4-42EF-A630-9747299C27D0}" type="presOf" srcId="{B2D1A57A-7C5D-4D19-87BE-F5C2F18A88D8}" destId="{DD5A1E9A-09D8-4A20-9725-6A4F96B888A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{04F06978-AC76-4C96-941F-28C90B5BC567}" type="presOf" srcId="{4EB8A445-F715-4A25-BE44-EF2F94BFDCA8}" destId="{B2BE7702-0BE9-4EBA-9928-08138CB6AAE4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{C11875B3-90EB-47E0-9DEB-87CC7C5D2B8E}" type="presOf" srcId="{379E2B01-CFBA-4DD3-B80B-542CE00C9C9D}" destId="{A08494A2-24E4-4D69-BE0F-E8E3CCFAED1C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{4969D782-594D-4E10-B813-E6F48637FD78}" type="presOf" srcId="{3078D6A8-9728-49D0-A6E2-489E23DD6C20}" destId="{507925DA-742C-4834-934F-2E38B20EA592}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{95BCCF14-14D1-4A0E-8D0E-5D0B4EB0B595}" type="presOf" srcId="{85E1EA2F-97B7-4926-9BA1-4FE393218AA7}" destId="{69289850-03CB-4354-A06C-C3B2C7DA33EB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{29377B2C-DEA1-4F18-94E2-D74D5895561E}" srcId="{97405587-9C85-439F-BA52-E195C2E63210}" destId="{4EB8A445-F715-4A25-BE44-EF2F94BFDCA8}" srcOrd="0" destOrd="0" parTransId="{FBB54084-A13F-4972-B57B-6436FC56FB75}" sibTransId="{6CC4F6D9-0DF2-45DE-9CAA-E74C4715C0EC}"/>
-    <dgm:cxn modelId="{04F06978-AC76-4C96-941F-28C90B5BC567}" type="presOf" srcId="{4EB8A445-F715-4A25-BE44-EF2F94BFDCA8}" destId="{B2BE7702-0BE9-4EBA-9928-08138CB6AAE4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{A10BC3E4-5E50-48DA-B0CE-950B5B6957FA}" type="presOf" srcId="{4081D7F2-0A17-44C3-A504-9A4F8E317C21}" destId="{949E8F55-A231-48DB-99D4-509D6F3671C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{B990264C-B18D-40F6-BAF2-58DC3D66C5F1}" srcId="{4EB8A445-F715-4A25-BE44-EF2F94BFDCA8}" destId="{D83E6B45-7284-442C-8A9D-5331363BDC08}" srcOrd="0" destOrd="0" parTransId="{2ADC7F0D-A344-41F5-B4C8-439EC9216185}" sibTransId="{BC9B225F-DE20-4992-8D1C-D9379D2B626D}"/>
+    <dgm:cxn modelId="{966F1130-77CE-4FF9-A03B-E9040B1F5861}" type="presOf" srcId="{40FC9754-B001-4F90-BDE7-8204A7C05729}" destId="{E1DC3FCB-4E8F-47F9-8DA5-09E2E4D23206}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{D0D6A67B-7D9D-40EA-B7DB-5CB62C8BE08A}" type="presOf" srcId="{D83E6B45-7284-442C-8A9D-5331363BDC08}" destId="{E2F6979C-96F0-4D52-BDAE-AD55349BEE1B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{3A4DBDFF-3E35-49E8-888C-62BD10F4FB87}" type="presOf" srcId="{C160B513-D185-4548-ADBE-3203E9029082}" destId="{A6AFF5CB-5ED2-46FA-80C4-8E5DDFA57E3B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{7D42B525-7C5C-49E8-8C0D-2B443E476740}" type="presOf" srcId="{C48B61D6-CF34-45C8-8480-EC4D7DD9F33B}" destId="{4579D9E2-D846-41E6-A935-A5A1EDBDD1C6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{8358F5A5-6EF1-4C52-8E06-B2E5DBD22D83}" type="presOf" srcId="{3078D6A8-9728-49D0-A6E2-489E23DD6C20}" destId="{BCACAF42-43B5-48DC-9628-AF52DD1B7E7B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{830F79B7-B660-4604-96F0-3B9113DBBDCA}" type="presOf" srcId="{97405587-9C85-439F-BA52-E195C2E63210}" destId="{D9958D3A-7FED-4F02-878D-A2D70BD20A37}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{B496AEFF-56A4-42EF-A630-9747299C27D0}" type="presOf" srcId="{B2D1A57A-7C5D-4D19-87BE-F5C2F18A88D8}" destId="{DD5A1E9A-09D8-4A20-9725-6A4F96B888A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{E3094A48-21E4-4AF4-A823-4183429BE3A9}" srcId="{4EB8A445-F715-4A25-BE44-EF2F94BFDCA8}" destId="{9981BD1E-7810-4CCA-BBBB-AB2AE058EBB4}" srcOrd="2" destOrd="0" parTransId="{19F84578-FF06-4343-8356-6A02A57A357D}" sibTransId="{E356D695-C98C-4CE1-AE46-593EDB4FBE36}"/>
-    <dgm:cxn modelId="{CE874B46-B6E7-4E03-A74C-4A0F74E77EEB}" type="presOf" srcId="{2ADC7F0D-A344-41F5-B4C8-439EC9216185}" destId="{3076C66A-9E6B-4B86-A479-9884CC94C7E1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{5864FB6B-0954-423C-868D-830A0A6D3EF8}" srcId="{D83E6B45-7284-442C-8A9D-5331363BDC08}" destId="{85E1EA2F-97B7-4926-9BA1-4FE393218AA7}" srcOrd="1" destOrd="0" parTransId="{C48B61D6-CF34-45C8-8480-EC4D7DD9F33B}" sibTransId="{36A3D720-01F4-40D8-B6E0-0FE2715AAB33}"/>
     <dgm:cxn modelId="{2FA61F54-20E4-4A11-939B-A797FCE430B1}" type="presOf" srcId="{2ADC7F0D-A344-41F5-B4C8-439EC9216185}" destId="{FACCE52F-8F06-4DF4-B784-08FDD7532807}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{966F1130-77CE-4FF9-A03B-E9040B1F5861}" type="presOf" srcId="{40FC9754-B001-4F90-BDE7-8204A7C05729}" destId="{E1DC3FCB-4E8F-47F9-8DA5-09E2E4D23206}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{FC3AE0FC-7F39-491E-BC5F-4FEF060AAC7F}" srcId="{0E25B7F3-1D98-462B-889F-858A877CB8E4}" destId="{C160B513-D185-4548-ADBE-3203E9029082}" srcOrd="1" destOrd="0" parTransId="{379E2B01-CFBA-4DD3-B80B-542CE00C9C9D}" sibTransId="{62D21CD7-232F-47ED-A1F6-15ABA9FD4355}"/>
-    <dgm:cxn modelId="{79B5E057-E529-4192-9266-BEC8919D9A8B}" type="presOf" srcId="{379E2B01-CFBA-4DD3-B80B-542CE00C9C9D}" destId="{B66E5A50-30FA-43D4-933D-E47078BEDB32}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{7F158D40-897D-4326-9861-BC10A62A6717}" srcId="{0E25B7F3-1D98-462B-889F-858A877CB8E4}" destId="{AE275FA5-0E87-4345-847B-B571B83F6FFC}" srcOrd="0" destOrd="0" parTransId="{40FC9754-B001-4F90-BDE7-8204A7C05729}" sibTransId="{8A11DF86-F281-48DD-8164-60D1BA91B3BF}"/>
-    <dgm:cxn modelId="{63BF7FEA-70E8-4C21-9DF2-E14E4B9C5DCB}" type="presOf" srcId="{9981BD1E-7810-4CCA-BBBB-AB2AE058EBB4}" destId="{BAF67EE1-29BF-4FB9-9F6C-E04E8BAB9304}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{ABEB2F9F-C30E-4406-980E-0CEF7834D418}" type="presOf" srcId="{0E25B7F3-1D98-462B-889F-858A877CB8E4}" destId="{24BB20D3-9810-46C7-BE75-31F9B0FEA917}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{9E4B7F61-282C-40DC-B884-473041B526FC}" type="presOf" srcId="{19F84578-FF06-4343-8356-6A02A57A357D}" destId="{78BDA40F-5185-4263-95CC-2EBA3D643EE8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{1E566038-FFF9-4D99-8B27-17F87D2B614B}" srcId="{4EB8A445-F715-4A25-BE44-EF2F94BFDCA8}" destId="{0E25B7F3-1D98-462B-889F-858A877CB8E4}" srcOrd="1" destOrd="0" parTransId="{3078D6A8-9728-49D0-A6E2-489E23DD6C20}" sibTransId="{784671B3-3A0B-42E2-A3B0-513933FE740F}"/>
-    <dgm:cxn modelId="{B990264C-B18D-40F6-BAF2-58DC3D66C5F1}" srcId="{4EB8A445-F715-4A25-BE44-EF2F94BFDCA8}" destId="{D83E6B45-7284-442C-8A9D-5331363BDC08}" srcOrd="0" destOrd="0" parTransId="{2ADC7F0D-A344-41F5-B4C8-439EC9216185}" sibTransId="{BC9B225F-DE20-4992-8D1C-D9379D2B626D}"/>
-    <dgm:cxn modelId="{C11875B3-90EB-47E0-9DEB-87CC7C5D2B8E}" type="presOf" srcId="{379E2B01-CFBA-4DD3-B80B-542CE00C9C9D}" destId="{A08494A2-24E4-4D69-BE0F-E8E3CCFAED1C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{D0D6A67B-7D9D-40EA-B7DB-5CB62C8BE08A}" type="presOf" srcId="{D83E6B45-7284-442C-8A9D-5331363BDC08}" destId="{E2F6979C-96F0-4D52-BDAE-AD55349BEE1B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{28E059F6-2921-4656-B3F8-72F895CD7774}" type="presOf" srcId="{19F84578-FF06-4343-8356-6A02A57A357D}" destId="{5A040D0C-E10F-4235-9BB3-55F83845E8D3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{A1E0A08A-1040-441F-9BB1-510368C3F19C}" type="presOf" srcId="{C48B61D6-CF34-45C8-8480-EC4D7DD9F33B}" destId="{3995C48A-89DF-41E2-A267-39EDAFECB947}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{396ED208-0BD8-440A-AECE-7A1ECA34F114}" type="presOf" srcId="{4081D7F2-0A17-44C3-A504-9A4F8E317C21}" destId="{85CB897E-6D32-4ACE-BB64-63A3B378FBCE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{C5ABD69F-A965-40FB-8FB5-C9A60EFE5AC4}" type="presOf" srcId="{40FC9754-B001-4F90-BDE7-8204A7C05729}" destId="{9B53EA88-9045-43B4-8E34-F6C51F695CF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{EF61BD9E-2A97-485F-A006-DB3CE5FD730F}" srcId="{D83E6B45-7284-442C-8A9D-5331363BDC08}" destId="{B2D1A57A-7C5D-4D19-87BE-F5C2F18A88D8}" srcOrd="0" destOrd="0" parTransId="{4081D7F2-0A17-44C3-A504-9A4F8E317C21}" sibTransId="{118BBFA6-DEC4-40EA-84CA-F50C1BA70601}"/>
     <dgm:cxn modelId="{362983E4-F4E7-4D9E-AB08-5B1A6325BF1B}" type="presParOf" srcId="{D9958D3A-7FED-4F02-878D-A2D70BD20A37}" destId="{C6D89B21-212D-4CD2-90AD-05404936679C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{C159E27F-851B-4138-93B2-2C582F19C813}" type="presParOf" srcId="{C6D89B21-212D-4CD2-90AD-05404936679C}" destId="{B2BE7702-0BE9-4EBA-9928-08138CB6AAE4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{423E2716-2590-42AB-8EDC-18124765125E}" type="presParOf" srcId="{C6D89B21-212D-4CD2-90AD-05404936679C}" destId="{D0872117-87B2-4F34-AA8D-B42E7D53AB08}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
@@ -3770,6 +4049,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CCAC223D-60CC-4327-A3F9-B4C70710A414}" type="pres">
       <dgm:prSet presAssocID="{237F8799-DBA9-4989-816C-BDAF57D6FDCD}" presName="root1" presStyleCnt="0"/>
@@ -3782,6 +4068,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5E6B600C-7AF5-42AB-A31E-3049CFC41831}" type="pres">
       <dgm:prSet presAssocID="{237F8799-DBA9-4989-816C-BDAF57D6FDCD}" presName="level2hierChild" presStyleCnt="0"/>
@@ -3790,10 +4083,24 @@
     <dgm:pt modelId="{FD1C9286-4B23-4DDD-8422-4314EDC1CA55}" type="pres">
       <dgm:prSet presAssocID="{49686735-025D-41CE-969E-F916200FE1B9}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5C20A0FC-110C-4A45-B29A-3E68CE7E6D0D}" type="pres">
       <dgm:prSet presAssocID="{49686735-025D-41CE-969E-F916200FE1B9}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F1E4594F-D830-46FD-83F1-91FEE4A6CB8E}" type="pres">
       <dgm:prSet presAssocID="{BC956749-AD11-49B9-9FF4-31A2A74F7FD9}" presName="root2" presStyleCnt="0"/>
@@ -3806,6 +4113,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9B6C7BF6-BF48-473E-9C37-03E40B485C0D}" type="pres">
       <dgm:prSet presAssocID="{BC956749-AD11-49B9-9FF4-31A2A74F7FD9}" presName="level3hierChild" presStyleCnt="0"/>
@@ -3814,10 +4128,24 @@
     <dgm:pt modelId="{544B8C79-D790-4AE8-827B-CD6F8A31B8CB}" type="pres">
       <dgm:prSet presAssocID="{02DAFC17-1465-42E8-9846-34BAC2C03562}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{ABCA26E3-0FCC-478A-8582-BC4A73811137}" type="pres">
       <dgm:prSet presAssocID="{02DAFC17-1465-42E8-9846-34BAC2C03562}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F2FC38DD-1759-4E04-8569-32961694E5B6}" type="pres">
       <dgm:prSet presAssocID="{8BAA5C7C-C5EE-460C-940A-B377DAE8A988}" presName="root2" presStyleCnt="0"/>
@@ -3830,6 +4158,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DB4B4001-4C1C-4F45-B971-DEC345C5EC99}" type="pres">
       <dgm:prSet presAssocID="{8BAA5C7C-C5EE-460C-940A-B377DAE8A988}" presName="level3hierChild" presStyleCnt="0"/>
@@ -3838,10 +4173,24 @@
     <dgm:pt modelId="{652CAEF1-56D0-40EB-AB82-2C7A0312ECBA}" type="pres">
       <dgm:prSet presAssocID="{1FC573E2-F8A5-443A-B01B-58A003435257}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{25A2763F-42EF-4659-AD54-689E5444954B}" type="pres">
       <dgm:prSet presAssocID="{1FC573E2-F8A5-443A-B01B-58A003435257}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3F0E1C0D-FB64-4542-9811-0649C51B86B2}" type="pres">
       <dgm:prSet presAssocID="{A17EA9BA-4EDC-4926-9278-2FCD02FBC9F8}" presName="root2" presStyleCnt="0"/>
@@ -3854,6 +4203,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{031BA56D-D0C2-41C5-B153-5F19DCAC713F}" type="pres">
       <dgm:prSet presAssocID="{A17EA9BA-4EDC-4926-9278-2FCD02FBC9F8}" presName="level3hierChild" presStyleCnt="0"/>
@@ -3862,10 +4218,24 @@
     <dgm:pt modelId="{CD53BE76-636F-4F2A-B169-F5605D02BB30}" type="pres">
       <dgm:prSet presAssocID="{6B6488FE-AE7F-442E-86DB-A28D87130226}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FF3343DC-CF3D-4471-9D0F-D7DB7C07BC70}" type="pres">
       <dgm:prSet presAssocID="{6B6488FE-AE7F-442E-86DB-A28D87130226}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E68988DA-711C-44CF-8510-5C710CD1D1DE}" type="pres">
       <dgm:prSet presAssocID="{B34EF847-A899-43B9-9F56-CED651EFC4DF}" presName="root2" presStyleCnt="0"/>
@@ -3878,6 +4248,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E00AB345-BCFD-497C-9851-4B762B5AA701}" type="pres">
       <dgm:prSet presAssocID="{B34EF847-A899-43B9-9F56-CED651EFC4DF}" presName="level3hierChild" presStyleCnt="0"/>
@@ -3886,10 +4263,24 @@
     <dgm:pt modelId="{AC24DD19-4F69-4CD7-948A-F2F8F2214485}" type="pres">
       <dgm:prSet presAssocID="{2F6CD5F5-2C73-4DEB-9A24-DDC01DED245B}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0CCD63D4-291C-4C18-BC29-4D18E7071C78}" type="pres">
       <dgm:prSet presAssocID="{2F6CD5F5-2C73-4DEB-9A24-DDC01DED245B}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E8A2392A-1637-48A0-B06E-1486B7A51FB3}" type="pres">
       <dgm:prSet presAssocID="{B37CE7E1-38F2-4C17-92A9-733D9C64EEFE}" presName="root2" presStyleCnt="0"/>
@@ -3902,6 +4293,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4AB2EE23-D45E-48E2-9F52-534C3E518105}" type="pres">
       <dgm:prSet presAssocID="{B37CE7E1-38F2-4C17-92A9-733D9C64EEFE}" presName="level3hierChild" presStyleCnt="0"/>
@@ -3910,10 +4308,24 @@
     <dgm:pt modelId="{EFB2CA65-BC22-4CDA-A8B8-1231A23A5850}" type="pres">
       <dgm:prSet presAssocID="{8C103A4E-C090-4B2B-AAF9-46BDBFE87422}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B230AD25-A621-461F-B606-38CA1CA2E494}" type="pres">
       <dgm:prSet presAssocID="{8C103A4E-C090-4B2B-AAF9-46BDBFE87422}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E9E9E35B-6519-43B5-A294-263CBF4939CD}" type="pres">
       <dgm:prSet presAssocID="{D45BA2D9-8A90-4563-8700-8F761FCAF235}" presName="root2" presStyleCnt="0"/>
@@ -3926,6 +4338,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DCF10944-C927-4AA1-8766-C4877C12DD27}" type="pres">
       <dgm:prSet presAssocID="{D45BA2D9-8A90-4563-8700-8F761FCAF235}" presName="level3hierChild" presStyleCnt="0"/>
@@ -3934,10 +4353,24 @@
     <dgm:pt modelId="{B8F96A19-1AA5-47FD-80BA-2FDA1967DEBC}" type="pres">
       <dgm:prSet presAssocID="{1C65F7FE-A108-4060-9B6E-6945AD764563}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EEFC9013-22FB-4AA8-B271-A411C4A53ADE}" type="pres">
       <dgm:prSet presAssocID="{1C65F7FE-A108-4060-9B6E-6945AD764563}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{05BAFF1D-FEB6-4D8F-814F-DB82F83AC4D1}" type="pres">
       <dgm:prSet presAssocID="{66B30BFE-27C6-4E3C-B180-E74F08C59E5E}" presName="root2" presStyleCnt="0"/>
@@ -3950,6 +4383,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A480B6FE-58A6-440B-AF2F-4A13789C99F8}" type="pres">
       <dgm:prSet presAssocID="{66B30BFE-27C6-4E3C-B180-E74F08C59E5E}" presName="level3hierChild" presStyleCnt="0"/>
@@ -3958,10 +4398,24 @@
     <dgm:pt modelId="{F7E408E5-85F9-47E6-B49D-03495C07431A}" type="pres">
       <dgm:prSet presAssocID="{0814A026-F622-4667-BF23-FF56E9FA4593}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B5CA7085-A345-4EEE-AE45-B7CD9DABB398}" type="pres">
       <dgm:prSet presAssocID="{0814A026-F622-4667-BF23-FF56E9FA4593}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{26EB35CB-B15D-462B-81E6-C1DE22FCA0A3}" type="pres">
       <dgm:prSet presAssocID="{6EFC625A-5E62-44C1-9D35-F83768AFD192}" presName="root2" presStyleCnt="0"/>
@@ -3974,6 +4428,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7DD90E91-2244-4C58-B558-DB35E3021AC6}" type="pres">
       <dgm:prSet presAssocID="{6EFC625A-5E62-44C1-9D35-F83768AFD192}" presName="level3hierChild" presStyleCnt="0"/>
@@ -3982,10 +4443,24 @@
     <dgm:pt modelId="{9F3D8088-9BEC-4292-A6D2-9672C4C1A187}" type="pres">
       <dgm:prSet presAssocID="{C5BC87EF-EAB7-4D8D-BC15-C7FB605433A9}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4858FD4C-86E9-47B3-9B31-040CD92BB5BA}" type="pres">
       <dgm:prSet presAssocID="{C5BC87EF-EAB7-4D8D-BC15-C7FB605433A9}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EFFE9C34-21E4-4B54-8A8C-5D99EA1194EE}" type="pres">
       <dgm:prSet presAssocID="{088D29CE-3D04-4586-92C1-733A73EFF9B5}" presName="root2" presStyleCnt="0"/>
@@ -3998,6 +4473,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3BFBD15A-05A5-4C00-8423-03954F6FD210}" type="pres">
       <dgm:prSet presAssocID="{088D29CE-3D04-4586-92C1-733A73EFF9B5}" presName="level3hierChild" presStyleCnt="0"/>
@@ -4006,10 +4488,24 @@
     <dgm:pt modelId="{22529796-9130-4290-AAA5-CCAF5E0AFD17}" type="pres">
       <dgm:prSet presAssocID="{82DEAA50-1B6E-4AAC-9B31-569FB078970D}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A52861CE-323D-4AA1-8812-8DAD5E7DE490}" type="pres">
       <dgm:prSet presAssocID="{82DEAA50-1B6E-4AAC-9B31-569FB078970D}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{78601C95-F6FE-4808-A1A7-673F07BEFE7D}" type="pres">
       <dgm:prSet presAssocID="{9EEF331A-10C9-4E45-BCDB-3E6C793ABE8C}" presName="root2" presStyleCnt="0"/>
@@ -4022,6 +4518,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D3579DB5-5F58-4EE8-990A-935EEC603654}" type="pres">
       <dgm:prSet presAssocID="{9EEF331A-10C9-4E45-BCDB-3E6C793ABE8C}" presName="level3hierChild" presStyleCnt="0"/>
@@ -4030,10 +4533,24 @@
     <dgm:pt modelId="{2817B20D-B833-4EDA-8AF3-D54DBFE69C11}" type="pres">
       <dgm:prSet presAssocID="{A57CE990-6495-4445-8453-43C876D2BA08}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F98B20FA-7148-4A45-8324-158DECB4C98B}" type="pres">
       <dgm:prSet presAssocID="{A57CE990-6495-4445-8453-43C876D2BA08}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{914301CE-1B57-46F9-844D-53639A469071}" type="pres">
       <dgm:prSet presAssocID="{5E1E2FD8-FB24-4A9C-BA82-9B4CDAC8B59E}" presName="root2" presStyleCnt="0"/>
@@ -4046,6 +4563,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{19C1436D-26FF-4615-9C39-D654DDD0EA9F}" type="pres">
       <dgm:prSet presAssocID="{5E1E2FD8-FB24-4A9C-BA82-9B4CDAC8B59E}" presName="level3hierChild" presStyleCnt="0"/>
@@ -4054,10 +4578,24 @@
     <dgm:pt modelId="{4324F5F6-C4CF-44DC-98AC-EDD597E85F69}" type="pres">
       <dgm:prSet presAssocID="{F3E958CD-1A22-46BC-950E-2AC3128DDAEA}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7A80C4D4-6BB2-4C18-A9C5-005711E8CA1B}" type="pres">
       <dgm:prSet presAssocID="{F3E958CD-1A22-46BC-950E-2AC3128DDAEA}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A70E5C4B-A5F6-49F4-930A-013A38588E91}" type="pres">
       <dgm:prSet presAssocID="{438DE397-EA70-4CA0-BF5E-AE56DC97C9DA}" presName="root2" presStyleCnt="0"/>
@@ -4070,6 +4608,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B868678C-16FF-4FE3-B5F9-09CF0B1426F2}" type="pres">
       <dgm:prSet presAssocID="{438DE397-EA70-4CA0-BF5E-AE56DC97C9DA}" presName="level3hierChild" presStyleCnt="0"/>
@@ -4077,57 +4622,57 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{EF19A686-9C10-464A-A1B0-49E472DD5FAF}" type="presOf" srcId="{8C103A4E-C090-4B2B-AAF9-46BDBFE87422}" destId="{B230AD25-A621-461F-B606-38CA1CA2E494}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{B864AD57-CCA7-41B1-BFC2-1D2B512233CA}" type="presOf" srcId="{A17EA9BA-4EDC-4926-9278-2FCD02FBC9F8}" destId="{076E7B39-BBB2-426C-A0E3-52578EC2EFC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{39AF7353-F5D7-4F1C-B17F-A559A246FF85}" type="presOf" srcId="{1C65F7FE-A108-4060-9B6E-6945AD764563}" destId="{EEFC9013-22FB-4AA8-B271-A411C4A53ADE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{1E82B034-45E6-4F10-A771-AE9455A57ACA}" srcId="{8BAA5C7C-C5EE-460C-940A-B377DAE8A988}" destId="{B37CE7E1-38F2-4C17-92A9-733D9C64EEFE}" srcOrd="2" destOrd="0" parTransId="{2F6CD5F5-2C73-4DEB-9A24-DDC01DED245B}" sibTransId="{E572C617-432A-4A01-9090-EB9690E75B96}"/>
+    <dgm:cxn modelId="{31DE282A-93BA-4EA4-ABE6-44725DE92FC8}" type="presOf" srcId="{C5BC87EF-EAB7-4D8D-BC15-C7FB605433A9}" destId="{4858FD4C-86E9-47B3-9B31-040CD92BB5BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{0E9A9E7B-40E6-42C4-9B68-BC6202411B4E}" type="presOf" srcId="{8C103A4E-C090-4B2B-AAF9-46BDBFE87422}" destId="{EFB2CA65-BC22-4CDA-A8B8-1231A23A5850}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{F3E4D05A-DBC6-4834-8493-87BDDD605BB0}" type="presOf" srcId="{F3E958CD-1A22-46BC-950E-2AC3128DDAEA}" destId="{7A80C4D4-6BB2-4C18-A9C5-005711E8CA1B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{59EBF29E-4AB5-4910-81C3-D34205C9A9EF}" type="presOf" srcId="{6EFC625A-5E62-44C1-9D35-F83768AFD192}" destId="{A0D6A24F-AB26-44DA-A2F8-A5ADB146DB44}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{3A533BD7-74B7-485B-97F7-F018369D6AE9}" type="presOf" srcId="{82DEAA50-1B6E-4AAC-9B31-569FB078970D}" destId="{22529796-9130-4290-AAA5-CCAF5E0AFD17}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{1084505A-D291-4ED7-9CFA-6485CA648A8B}" srcId="{088D29CE-3D04-4586-92C1-733A73EFF9B5}" destId="{9EEF331A-10C9-4E45-BCDB-3E6C793ABE8C}" srcOrd="0" destOrd="0" parTransId="{82DEAA50-1B6E-4AAC-9B31-569FB078970D}" sibTransId="{2FDF56A8-C0D8-420D-86BC-AB5085FA774F}"/>
+    <dgm:cxn modelId="{06C059E0-3DE9-4113-82E7-F025A1400B0B}" type="presOf" srcId="{A57CE990-6495-4445-8453-43C876D2BA08}" destId="{F98B20FA-7148-4A45-8324-158DECB4C98B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{A47AC97B-A8E9-4639-BF4B-346B06DA196A}" type="presOf" srcId="{BC956749-AD11-49B9-9FF4-31A2A74F7FD9}" destId="{EA32D5D9-E6D5-4922-A8DF-874CF558F996}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{87C88EAD-3937-4ADB-9A74-56B130D021E8}" srcId="{237F8799-DBA9-4989-816C-BDAF57D6FDCD}" destId="{BC956749-AD11-49B9-9FF4-31A2A74F7FD9}" srcOrd="0" destOrd="0" parTransId="{49686735-025D-41CE-969E-F916200FE1B9}" sibTransId="{F77EAF4F-C9C3-47E5-81D7-8A5BBF26EC19}"/>
+    <dgm:cxn modelId="{71D3F500-AFFB-42E8-BB42-E2A9226EBB85}" srcId="{8BAA5C7C-C5EE-460C-940A-B377DAE8A988}" destId="{D45BA2D9-8A90-4563-8700-8F761FCAF235}" srcOrd="3" destOrd="0" parTransId="{8C103A4E-C090-4B2B-AAF9-46BDBFE87422}" sibTransId="{C620BD03-DE93-493F-A55E-44CFAA25BF86}"/>
+    <dgm:cxn modelId="{060D01A8-177B-4352-8A3A-ED7021D106EC}" srcId="{088D29CE-3D04-4586-92C1-733A73EFF9B5}" destId="{438DE397-EA70-4CA0-BF5E-AE56DC97C9DA}" srcOrd="2" destOrd="0" parTransId="{F3E958CD-1A22-46BC-950E-2AC3128DDAEA}" sibTransId="{C5069DCE-B4EE-46EC-87A7-C2C972113AC9}"/>
+    <dgm:cxn modelId="{2088166F-A945-4B60-BD43-49BF95306E70}" type="presOf" srcId="{1C65F7FE-A108-4060-9B6E-6945AD764563}" destId="{B8F96A19-1AA5-47FD-80BA-2FDA1967DEBC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{4A6125D7-EB9F-4043-A9BE-F0E04DBEF95A}" type="presOf" srcId="{EB1B1531-95C6-4093-875A-D0A079C86FC7}" destId="{B789BFE6-B4E8-4BD0-81F0-5B77E4E571F5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{3A9E05A9-FA3B-4085-B6CE-006F10C44EAE}" srcId="{8BAA5C7C-C5EE-460C-940A-B377DAE8A988}" destId="{B34EF847-A899-43B9-9F56-CED651EFC4DF}" srcOrd="1" destOrd="0" parTransId="{6B6488FE-AE7F-442E-86DB-A28D87130226}" sibTransId="{860D5C33-E6B9-4DC8-A3A3-F2E2CA044097}"/>
+    <dgm:cxn modelId="{02C4AD6E-3EFC-4F83-B964-4EA9636AF26A}" type="presOf" srcId="{C5BC87EF-EAB7-4D8D-BC15-C7FB605433A9}" destId="{9F3D8088-9BEC-4292-A6D2-9672C4C1A187}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{6FA1F7B0-3112-466C-AD76-3B9DAB9F6CB2}" type="presOf" srcId="{438DE397-EA70-4CA0-BF5E-AE56DC97C9DA}" destId="{94A30218-2A2A-48E7-9C17-68F0FC52F0A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{07D968E3-AFE0-46A4-A4A5-078CC3885E9E}" srcId="{237F8799-DBA9-4989-816C-BDAF57D6FDCD}" destId="{8BAA5C7C-C5EE-460C-940A-B377DAE8A988}" srcOrd="1" destOrd="0" parTransId="{02DAFC17-1465-42E8-9846-34BAC2C03562}" sibTransId="{E2BF8CC8-DD37-4D63-8F30-A9423CB96058}"/>
+    <dgm:cxn modelId="{A6C8F426-4E56-473B-BC95-2081B7B41ACF}" srcId="{088D29CE-3D04-4586-92C1-733A73EFF9B5}" destId="{5E1E2FD8-FB24-4A9C-BA82-9B4CDAC8B59E}" srcOrd="1" destOrd="0" parTransId="{A57CE990-6495-4445-8453-43C876D2BA08}" sibTransId="{51A7FFBC-4989-47CB-8C7E-C45A74C7D5F2}"/>
+    <dgm:cxn modelId="{7C8ADD49-A3A3-4529-AAB4-9E65DE215DC3}" srcId="{EB1B1531-95C6-4093-875A-D0A079C86FC7}" destId="{237F8799-DBA9-4989-816C-BDAF57D6FDCD}" srcOrd="0" destOrd="0" parTransId="{20F13D0C-866B-49EF-8234-A7AD42347A3E}" sibTransId="{431B0A60-EC9D-459B-B4FE-0B39F68F2903}"/>
+    <dgm:cxn modelId="{09AD2C9C-CE4E-421F-942C-F921619E7744}" type="presOf" srcId="{B37CE7E1-38F2-4C17-92A9-733D9C64EEFE}" destId="{740EA00F-599E-431F-A8EA-CF9796E92306}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{54919CBD-53D9-4D8F-9622-D5D9A98D2F31}" srcId="{D45BA2D9-8A90-4563-8700-8F761FCAF235}" destId="{6EFC625A-5E62-44C1-9D35-F83768AFD192}" srcOrd="1" destOrd="0" parTransId="{0814A026-F622-4667-BF23-FF56E9FA4593}" sibTransId="{55C065A4-8945-4134-889A-81274A10D60A}"/>
+    <dgm:cxn modelId="{35493ADD-F904-4365-B9FD-12C1244C43B0}" type="presOf" srcId="{66B30BFE-27C6-4E3C-B180-E74F08C59E5E}" destId="{59E7DE8E-5A5F-4CD0-8E3C-F4082B24B4C2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{96734409-60AF-4FD1-A079-0BDF553C081C}" type="presOf" srcId="{A57CE990-6495-4445-8453-43C876D2BA08}" destId="{2817B20D-B833-4EDA-8AF3-D54DBFE69C11}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{811FE705-D72D-4AEE-9054-A9FC4A2EA2E8}" type="presOf" srcId="{2F6CD5F5-2C73-4DEB-9A24-DDC01DED245B}" destId="{AC24DD19-4F69-4CD7-948A-F2F8F2214485}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{5CE7E526-A509-4849-8BA9-D86EA924344A}" type="presOf" srcId="{F3E958CD-1A22-46BC-950E-2AC3128DDAEA}" destId="{4324F5F6-C4CF-44DC-98AC-EDD597E85F69}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{308AE3A5-1C36-4F30-B85E-1CE7C0321975}" type="presOf" srcId="{9EEF331A-10C9-4E45-BCDB-3E6C793ABE8C}" destId="{753E158A-7453-4622-8D78-5E7B1E62A1C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{BDE572CF-F06E-4254-BBF1-DB421335DE48}" type="presOf" srcId="{1FC573E2-F8A5-443A-B01B-58A003435257}" destId="{652CAEF1-56D0-40EB-AB82-2C7A0312ECBA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{9C372DF2-581E-4162-8721-4716A566A944}" type="presOf" srcId="{02DAFC17-1465-42E8-9846-34BAC2C03562}" destId="{ABCA26E3-0FCC-478A-8582-BC4A73811137}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{7AD88AA8-4B69-4D8B-9EAE-C7DD1BB5247E}" type="presOf" srcId="{6B6488FE-AE7F-442E-86DB-A28D87130226}" destId="{FF3343DC-CF3D-4471-9D0F-D7DB7C07BC70}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{FCF246C0-CCFE-441E-A52B-1C01D9764F69}" type="presOf" srcId="{6B6488FE-AE7F-442E-86DB-A28D87130226}" destId="{CD53BE76-636F-4F2A-B169-F5605D02BB30}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{E7C75BDD-FA99-4B8D-9383-27F83AEE917C}" type="presOf" srcId="{0814A026-F622-4667-BF23-FF56E9FA4593}" destId="{B5CA7085-A345-4EEE-AE45-B7CD9DABB398}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{F8DC697C-FE11-4CAC-A733-F9B44D25BC14}" srcId="{237F8799-DBA9-4989-816C-BDAF57D6FDCD}" destId="{088D29CE-3D04-4586-92C1-733A73EFF9B5}" srcOrd="2" destOrd="0" parTransId="{C5BC87EF-EAB7-4D8D-BC15-C7FB605433A9}" sibTransId="{970AE4B1-8D7E-41C9-A938-AE14DFF25787}"/>
     <dgm:cxn modelId="{9059A83D-1F24-452D-8620-57951F242478}" srcId="{D45BA2D9-8A90-4563-8700-8F761FCAF235}" destId="{66B30BFE-27C6-4E3C-B180-E74F08C59E5E}" srcOrd="0" destOrd="0" parTransId="{1C65F7FE-A108-4060-9B6E-6945AD764563}" sibTransId="{CD699A3A-9DBD-4CEB-8E51-B4B0CE10DBA7}"/>
-    <dgm:cxn modelId="{3A9E05A9-FA3B-4085-B6CE-006F10C44EAE}" srcId="{8BAA5C7C-C5EE-460C-940A-B377DAE8A988}" destId="{B34EF847-A899-43B9-9F56-CED651EFC4DF}" srcOrd="1" destOrd="0" parTransId="{6B6488FE-AE7F-442E-86DB-A28D87130226}" sibTransId="{860D5C33-E6B9-4DC8-A3A3-F2E2CA044097}"/>
-    <dgm:cxn modelId="{31DE282A-93BA-4EA4-ABE6-44725DE92FC8}" type="presOf" srcId="{C5BC87EF-EAB7-4D8D-BC15-C7FB605433A9}" destId="{4858FD4C-86E9-47B3-9B31-040CD92BB5BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{59EBF29E-4AB5-4910-81C3-D34205C9A9EF}" type="presOf" srcId="{6EFC625A-5E62-44C1-9D35-F83768AFD192}" destId="{A0D6A24F-AB26-44DA-A2F8-A5ADB146DB44}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{FCF246C0-CCFE-441E-A52B-1C01D9764F69}" type="presOf" srcId="{6B6488FE-AE7F-442E-86DB-A28D87130226}" destId="{CD53BE76-636F-4F2A-B169-F5605D02BB30}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{060D01A8-177B-4352-8A3A-ED7021D106EC}" srcId="{088D29CE-3D04-4586-92C1-733A73EFF9B5}" destId="{438DE397-EA70-4CA0-BF5E-AE56DC97C9DA}" srcOrd="2" destOrd="0" parTransId="{F3E958CD-1A22-46BC-950E-2AC3128DDAEA}" sibTransId="{C5069DCE-B4EE-46EC-87A7-C2C972113AC9}"/>
-    <dgm:cxn modelId="{1084505A-D291-4ED7-9CFA-6485CA648A8B}" srcId="{088D29CE-3D04-4586-92C1-733A73EFF9B5}" destId="{9EEF331A-10C9-4E45-BCDB-3E6C793ABE8C}" srcOrd="0" destOrd="0" parTransId="{82DEAA50-1B6E-4AAC-9B31-569FB078970D}" sibTransId="{2FDF56A8-C0D8-420D-86BC-AB5085FA774F}"/>
-    <dgm:cxn modelId="{B864AD57-CCA7-41B1-BFC2-1D2B512233CA}" type="presOf" srcId="{A17EA9BA-4EDC-4926-9278-2FCD02FBC9F8}" destId="{076E7B39-BBB2-426C-A0E3-52578EC2EFC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{1E82B034-45E6-4F10-A771-AE9455A57ACA}" srcId="{8BAA5C7C-C5EE-460C-940A-B377DAE8A988}" destId="{B37CE7E1-38F2-4C17-92A9-733D9C64EEFE}" srcOrd="2" destOrd="0" parTransId="{2F6CD5F5-2C73-4DEB-9A24-DDC01DED245B}" sibTransId="{E572C617-432A-4A01-9090-EB9690E75B96}"/>
-    <dgm:cxn modelId="{9C372DF2-581E-4162-8721-4716A566A944}" type="presOf" srcId="{02DAFC17-1465-42E8-9846-34BAC2C03562}" destId="{ABCA26E3-0FCC-478A-8582-BC4A73811137}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{F8DC697C-FE11-4CAC-A733-F9B44D25BC14}" srcId="{237F8799-DBA9-4989-816C-BDAF57D6FDCD}" destId="{088D29CE-3D04-4586-92C1-733A73EFF9B5}" srcOrd="2" destOrd="0" parTransId="{C5BC87EF-EAB7-4D8D-BC15-C7FB605433A9}" sibTransId="{970AE4B1-8D7E-41C9-A938-AE14DFF25787}"/>
-    <dgm:cxn modelId="{0E9A9E7B-40E6-42C4-9B68-BC6202411B4E}" type="presOf" srcId="{8C103A4E-C090-4B2B-AAF9-46BDBFE87422}" destId="{EFB2CA65-BC22-4CDA-A8B8-1231A23A5850}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{3A7A8883-F027-44AF-849C-77F2B1756197}" type="presOf" srcId="{5E1E2FD8-FB24-4A9C-BA82-9B4CDAC8B59E}" destId="{A464D6DC-2B9E-4AD1-AB00-F853C90B6DCE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{E859639F-2C01-44F6-8610-4ADDED65C13C}" type="presOf" srcId="{49686735-025D-41CE-969E-F916200FE1B9}" destId="{FD1C9286-4B23-4DDD-8422-4314EDC1CA55}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{918A1445-93DC-4B10-8C1C-F91FF1FE8695}" type="presOf" srcId="{02DAFC17-1465-42E8-9846-34BAC2C03562}" destId="{544B8C79-D790-4AE8-827B-CD6F8A31B8CB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{538DEF37-0217-42FB-BE64-B72772D67959}" type="presOf" srcId="{1FC573E2-F8A5-443A-B01B-58A003435257}" destId="{25A2763F-42EF-4659-AD54-689E5444954B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{53C3AC29-8A39-4AD9-BC32-955A179D2D30}" type="presOf" srcId="{8BAA5C7C-C5EE-460C-940A-B377DAE8A988}" destId="{0F34956D-EED5-400D-8063-E15A1A359517}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{6552548D-644B-4EA9-9D3B-DAE09093361C}" type="presOf" srcId="{82DEAA50-1B6E-4AAC-9B31-569FB078970D}" destId="{A52861CE-323D-4AA1-8812-8DAD5E7DE490}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{829E1B26-467E-494D-AD9F-AE19D2E68D7A}" type="presOf" srcId="{237F8799-DBA9-4989-816C-BDAF57D6FDCD}" destId="{352684B4-5DFB-466E-AA42-73A1D850FB98}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{E3F2AE9B-C9CC-4FC0-856F-BAF397C20E31}" type="presOf" srcId="{2F6CD5F5-2C73-4DEB-9A24-DDC01DED245B}" destId="{0CCD63D4-291C-4C18-BC29-4D18E7071C78}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{3444555A-FB3D-4C3A-B0F7-7156FF58E68F}" type="presOf" srcId="{0814A026-F622-4667-BF23-FF56E9FA4593}" destId="{F7E408E5-85F9-47E6-B49D-03495C07431A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{980FF758-4F2F-4E85-AF6F-913BA8BD665F}" type="presOf" srcId="{B34EF847-A899-43B9-9F56-CED651EFC4DF}" destId="{94002FEC-66C9-4C39-ABDE-41B21349318F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{EFA45949-E045-4B55-9E35-E169B27B50D5}" type="presOf" srcId="{49686735-025D-41CE-969E-F916200FE1B9}" destId="{5C20A0FC-110C-4A45-B29A-3E68CE7E6D0D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{7C8ADD49-A3A3-4529-AAB4-9E65DE215DC3}" srcId="{EB1B1531-95C6-4093-875A-D0A079C86FC7}" destId="{237F8799-DBA9-4989-816C-BDAF57D6FDCD}" srcOrd="0" destOrd="0" parTransId="{20F13D0C-866B-49EF-8234-A7AD42347A3E}" sibTransId="{431B0A60-EC9D-459B-B4FE-0B39F68F2903}"/>
-    <dgm:cxn modelId="{96734409-60AF-4FD1-A079-0BDF553C081C}" type="presOf" srcId="{A57CE990-6495-4445-8453-43C876D2BA08}" destId="{2817B20D-B833-4EDA-8AF3-D54DBFE69C11}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{E859639F-2C01-44F6-8610-4ADDED65C13C}" type="presOf" srcId="{49686735-025D-41CE-969E-F916200FE1B9}" destId="{FD1C9286-4B23-4DDD-8422-4314EDC1CA55}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{308AE3A5-1C36-4F30-B85E-1CE7C0321975}" type="presOf" srcId="{9EEF331A-10C9-4E45-BCDB-3E6C793ABE8C}" destId="{753E158A-7453-4622-8D78-5E7B1E62A1C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{35493ADD-F904-4365-B9FD-12C1244C43B0}" type="presOf" srcId="{66B30BFE-27C6-4E3C-B180-E74F08C59E5E}" destId="{59E7DE8E-5A5F-4CD0-8E3C-F4082B24B4C2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{A47AC97B-A8E9-4639-BF4B-346B06DA196A}" type="presOf" srcId="{BC956749-AD11-49B9-9FF4-31A2A74F7FD9}" destId="{EA32D5D9-E6D5-4922-A8DF-874CF558F996}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{918A1445-93DC-4B10-8C1C-F91FF1FE8695}" type="presOf" srcId="{02DAFC17-1465-42E8-9846-34BAC2C03562}" destId="{544B8C79-D790-4AE8-827B-CD6F8A31B8CB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{6FA1F7B0-3112-466C-AD76-3B9DAB9F6CB2}" type="presOf" srcId="{438DE397-EA70-4CA0-BF5E-AE56DC97C9DA}" destId="{94A30218-2A2A-48E7-9C17-68F0FC52F0A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{6552548D-644B-4EA9-9D3B-DAE09093361C}" type="presOf" srcId="{82DEAA50-1B6E-4AAC-9B31-569FB078970D}" destId="{A52861CE-323D-4AA1-8812-8DAD5E7DE490}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{53C3AC29-8A39-4AD9-BC32-955A179D2D30}" type="presOf" srcId="{8BAA5C7C-C5EE-460C-940A-B377DAE8A988}" destId="{0F34956D-EED5-400D-8063-E15A1A359517}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{87C88EAD-3937-4ADB-9A74-56B130D021E8}" srcId="{237F8799-DBA9-4989-816C-BDAF57D6FDCD}" destId="{BC956749-AD11-49B9-9FF4-31A2A74F7FD9}" srcOrd="0" destOrd="0" parTransId="{49686735-025D-41CE-969E-F916200FE1B9}" sibTransId="{F77EAF4F-C9C3-47E5-81D7-8A5BBF26EC19}"/>
-    <dgm:cxn modelId="{3444555A-FB3D-4C3A-B0F7-7156FF58E68F}" type="presOf" srcId="{0814A026-F622-4667-BF23-FF56E9FA4593}" destId="{F7E408E5-85F9-47E6-B49D-03495C07431A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{53665763-20BC-43D4-B0E2-8FB12EC0931B}" type="presOf" srcId="{D45BA2D9-8A90-4563-8700-8F761FCAF235}" destId="{369E7E7F-50E1-416F-8141-40118879A41F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{FE0E8B81-20A2-4403-B9FA-9B0C354B383A}" type="presOf" srcId="{088D29CE-3D04-4586-92C1-733A73EFF9B5}" destId="{3BF0C746-3987-4AD2-B3FF-274E363CDFD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{F0C0851B-B230-4127-BA2C-7A53F77D7CB6}" srcId="{8BAA5C7C-C5EE-460C-940A-B377DAE8A988}" destId="{A17EA9BA-4EDC-4926-9278-2FCD02FBC9F8}" srcOrd="0" destOrd="0" parTransId="{1FC573E2-F8A5-443A-B01B-58A003435257}" sibTransId="{9A9F6F34-5F97-4744-983B-AE55C3AA326B}"/>
-    <dgm:cxn modelId="{F3E4D05A-DBC6-4834-8493-87BDDD605BB0}" type="presOf" srcId="{F3E958CD-1A22-46BC-950E-2AC3128DDAEA}" destId="{7A80C4D4-6BB2-4C18-A9C5-005711E8CA1B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{EF19A686-9C10-464A-A1B0-49E472DD5FAF}" type="presOf" srcId="{8C103A4E-C090-4B2B-AAF9-46BDBFE87422}" destId="{B230AD25-A621-461F-B606-38CA1CA2E494}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{2088166F-A945-4B60-BD43-49BF95306E70}" type="presOf" srcId="{1C65F7FE-A108-4060-9B6E-6945AD764563}" destId="{B8F96A19-1AA5-47FD-80BA-2FDA1967DEBC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{BDE572CF-F06E-4254-BBF1-DB421335DE48}" type="presOf" srcId="{1FC573E2-F8A5-443A-B01B-58A003435257}" destId="{652CAEF1-56D0-40EB-AB82-2C7A0312ECBA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{39AF7353-F5D7-4F1C-B17F-A559A246FF85}" type="presOf" srcId="{1C65F7FE-A108-4060-9B6E-6945AD764563}" destId="{EEFC9013-22FB-4AA8-B271-A411C4A53ADE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{06C059E0-3DE9-4113-82E7-F025A1400B0B}" type="presOf" srcId="{A57CE990-6495-4445-8453-43C876D2BA08}" destId="{F98B20FA-7148-4A45-8324-158DECB4C98B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{53665763-20BC-43D4-B0E2-8FB12EC0931B}" type="presOf" srcId="{D45BA2D9-8A90-4563-8700-8F761FCAF235}" destId="{369E7E7F-50E1-416F-8141-40118879A41F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{71D3F500-AFFB-42E8-BB42-E2A9226EBB85}" srcId="{8BAA5C7C-C5EE-460C-940A-B377DAE8A988}" destId="{D45BA2D9-8A90-4563-8700-8F761FCAF235}" srcOrd="3" destOrd="0" parTransId="{8C103A4E-C090-4B2B-AAF9-46BDBFE87422}" sibTransId="{C620BD03-DE93-493F-A55E-44CFAA25BF86}"/>
-    <dgm:cxn modelId="{980FF758-4F2F-4E85-AF6F-913BA8BD665F}" type="presOf" srcId="{B34EF847-A899-43B9-9F56-CED651EFC4DF}" destId="{94002FEC-66C9-4C39-ABDE-41B21349318F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{FE0E8B81-20A2-4403-B9FA-9B0C354B383A}" type="presOf" srcId="{088D29CE-3D04-4586-92C1-733A73EFF9B5}" destId="{3BF0C746-3987-4AD2-B3FF-274E363CDFD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{3A7A8883-F027-44AF-849C-77F2B1756197}" type="presOf" srcId="{5E1E2FD8-FB24-4A9C-BA82-9B4CDAC8B59E}" destId="{A464D6DC-2B9E-4AD1-AB00-F853C90B6DCE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{07D968E3-AFE0-46A4-A4A5-078CC3885E9E}" srcId="{237F8799-DBA9-4989-816C-BDAF57D6FDCD}" destId="{8BAA5C7C-C5EE-460C-940A-B377DAE8A988}" srcOrd="1" destOrd="0" parTransId="{02DAFC17-1465-42E8-9846-34BAC2C03562}" sibTransId="{E2BF8CC8-DD37-4D63-8F30-A9423CB96058}"/>
-    <dgm:cxn modelId="{811FE705-D72D-4AEE-9054-A9FC4A2EA2E8}" type="presOf" srcId="{2F6CD5F5-2C73-4DEB-9A24-DDC01DED245B}" destId="{AC24DD19-4F69-4CD7-948A-F2F8F2214485}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{54919CBD-53D9-4D8F-9622-D5D9A98D2F31}" srcId="{D45BA2D9-8A90-4563-8700-8F761FCAF235}" destId="{6EFC625A-5E62-44C1-9D35-F83768AFD192}" srcOrd="1" destOrd="0" parTransId="{0814A026-F622-4667-BF23-FF56E9FA4593}" sibTransId="{55C065A4-8945-4134-889A-81274A10D60A}"/>
-    <dgm:cxn modelId="{538DEF37-0217-42FB-BE64-B72772D67959}" type="presOf" srcId="{1FC573E2-F8A5-443A-B01B-58A003435257}" destId="{25A2763F-42EF-4659-AD54-689E5444954B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{E3F2AE9B-C9CC-4FC0-856F-BAF397C20E31}" type="presOf" srcId="{2F6CD5F5-2C73-4DEB-9A24-DDC01DED245B}" destId="{0CCD63D4-291C-4C18-BC29-4D18E7071C78}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{829E1B26-467E-494D-AD9F-AE19D2E68D7A}" type="presOf" srcId="{237F8799-DBA9-4989-816C-BDAF57D6FDCD}" destId="{352684B4-5DFB-466E-AA42-73A1D850FB98}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{3A533BD7-74B7-485B-97F7-F018369D6AE9}" type="presOf" srcId="{82DEAA50-1B6E-4AAC-9B31-569FB078970D}" destId="{22529796-9130-4290-AAA5-CCAF5E0AFD17}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{02C4AD6E-3EFC-4F83-B964-4EA9636AF26A}" type="presOf" srcId="{C5BC87EF-EAB7-4D8D-BC15-C7FB605433A9}" destId="{9F3D8088-9BEC-4292-A6D2-9672C4C1A187}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{A6C8F426-4E56-473B-BC95-2081B7B41ACF}" srcId="{088D29CE-3D04-4586-92C1-733A73EFF9B5}" destId="{5E1E2FD8-FB24-4A9C-BA82-9B4CDAC8B59E}" srcOrd="1" destOrd="0" parTransId="{A57CE990-6495-4445-8453-43C876D2BA08}" sibTransId="{51A7FFBC-4989-47CB-8C7E-C45A74C7D5F2}"/>
-    <dgm:cxn modelId="{09AD2C9C-CE4E-421F-942C-F921619E7744}" type="presOf" srcId="{B37CE7E1-38F2-4C17-92A9-733D9C64EEFE}" destId="{740EA00F-599E-431F-A8EA-CF9796E92306}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{5CE7E526-A509-4849-8BA9-D86EA924344A}" type="presOf" srcId="{F3E958CD-1A22-46BC-950E-2AC3128DDAEA}" destId="{4324F5F6-C4CF-44DC-98AC-EDD597E85F69}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{7AD88AA8-4B69-4D8B-9EAE-C7DD1BB5247E}" type="presOf" srcId="{6B6488FE-AE7F-442E-86DB-A28D87130226}" destId="{FF3343DC-CF3D-4471-9D0F-D7DB7C07BC70}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{E7C75BDD-FA99-4B8D-9383-27F83AEE917C}" type="presOf" srcId="{0814A026-F622-4667-BF23-FF56E9FA4593}" destId="{B5CA7085-A345-4EEE-AE45-B7CD9DABB398}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{4A6125D7-EB9F-4043-A9BE-F0E04DBEF95A}" type="presOf" srcId="{EB1B1531-95C6-4093-875A-D0A079C86FC7}" destId="{B789BFE6-B4E8-4BD0-81F0-5B77E4E571F5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{E47A67F3-F057-48E4-84A9-42B46936AED5}" type="presParOf" srcId="{B789BFE6-B4E8-4BD0-81F0-5B77E4E571F5}" destId="{CCAC223D-60CC-4327-A3F9-B4C70710A414}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{2CA769BB-1693-41F4-B5B2-043A5A6E63EC}" type="presParOf" srcId="{CCAC223D-60CC-4327-A3F9-B4C70710A414}" destId="{352684B4-5DFB-466E-AA42-73A1D850FB98}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{3A063B76-E12C-410C-B3D6-07D6CB7938DD}" type="presParOf" srcId="{CCAC223D-60CC-4327-A3F9-B4C70710A414}" destId="{5E6B600C-7AF5-42AB-A31E-3049CFC41831}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
@@ -4210,1153 +4755,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{5A040D0C-E10F-4235-9BB3-55F83845E8D3}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="798478" y="1839347"/>
-          <a:ext cx="402200" cy="1149581"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="201100" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="201100" y="1149581"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="402200" y="1149581"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="969131" y="2383690"/>
-        <a:ext cx="60895" cy="60895"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{B66E5A50-30FA-43D4-933D-E47078BEDB32}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3211680" y="2222541"/>
-          <a:ext cx="402200" cy="383193"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="201100" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="201100" y="383193"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="402200" y="383193"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3398892" y="2400250"/>
-        <a:ext cx="27776" cy="27776"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{9B53EA88-9045-43B4-8E34-F6C51F695CF6}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3211680" y="1839347"/>
-          <a:ext cx="402200" cy="383193"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="383193"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="201100" y="383193"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="201100" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="402200" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3398892" y="2017056"/>
-        <a:ext cx="27776" cy="27776"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{BCACAF42-43B5-48DC-9628-AF52DD1B7E7B}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="798478" y="1839347"/>
-          <a:ext cx="402200" cy="383193"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="201100" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="201100" y="383193"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="402200" y="383193"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="985691" y="2017056"/>
-        <a:ext cx="27776" cy="27776"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{4579D9E2-D846-41E6-A935-A5A1EDBDD1C6}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3211680" y="689765"/>
-          <a:ext cx="402200" cy="383193"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="201100" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="201100" y="383193"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="402200" y="383193"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3398892" y="867474"/>
-        <a:ext cx="27776" cy="27776"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{949E8F55-A231-48DB-99D4-509D6F3671C8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3211680" y="306571"/>
-          <a:ext cx="402200" cy="383193"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="383193"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="201100" y="383193"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="201100" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="402200" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3398892" y="484280"/>
-        <a:ext cx="27776" cy="27776"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{3076C66A-9E6B-4B86-A479-9884CC94C7E1}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="798478" y="689765"/>
-          <a:ext cx="402200" cy="1149581"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="1149581"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="201100" y="1149581"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="201100" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="402200" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="969131" y="1234108"/>
-        <a:ext cx="60895" cy="60895"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{B2BE7702-0BE9-4EBA-9928-08138CB6AAE4}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="-1121523" y="1532792"/>
-          <a:ext cx="3226895" cy="613110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="25400" tIns="25400" rIns="25400" bIns="25400" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1778000">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="4000" kern="1200"/>
-            <a:t>Aplikacja</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="-1121523" y="1532792"/>
-        <a:ext cx="3226895" cy="613110"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{E2F6979C-96F0-4D52-BDAE-AD55349BEE1B}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1200679" y="383210"/>
-          <a:ext cx="2011001" cy="613110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="13335" tIns="13335" rIns="13335" bIns="13335" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="933450">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="2100" kern="1200"/>
-            <a:t>Warstwa domenowa</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1200679" y="383210"/>
-        <a:ext cx="2011001" cy="613110"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{DD5A1E9A-09D8-4A20-9725-6A4F96B888A3}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3613880" y="16"/>
-          <a:ext cx="2011001" cy="613110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="13335" tIns="13335" rIns="13335" bIns="13335" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="933450">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="2100" kern="1200"/>
-            <a:t>Modele </a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3613880" y="16"/>
-        <a:ext cx="2011001" cy="613110"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{69289850-03CB-4354-A06C-C3B2C7DA33EB}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3613880" y="766404"/>
-          <a:ext cx="2011001" cy="613110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="13335" tIns="13335" rIns="13335" bIns="13335" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="933450">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="2100" kern="1200"/>
-            <a:t>Usługi</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3613880" y="766404"/>
-        <a:ext cx="2011001" cy="613110"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{24BB20D3-9810-46C7-BE75-31F9B0FEA917}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1200679" y="1915986"/>
-          <a:ext cx="2011001" cy="613110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="13335" tIns="13335" rIns="13335" bIns="13335" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="933450">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="2100" kern="1200"/>
-            <a:t>Warstwa </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pl-PL" sz="2100" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="2100" i="1" kern="1200"/>
-            <a:t>User Interface</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1200679" y="1915986"/>
-        <a:ext cx="2011001" cy="613110"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{C42B12E7-01C7-4244-96B2-2DB3DF23510D}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3613880" y="1532792"/>
-          <a:ext cx="2011001" cy="613110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="13335" tIns="13335" rIns="13335" bIns="13335" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="933450">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="2100" kern="1200"/>
-            <a:t>Aktywności</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3613880" y="1532792"/>
-        <a:ext cx="2011001" cy="613110"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{A6AFF5CB-5ED2-46FA-80C4-8E5DDFA57E3B}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3613880" y="2299179"/>
-          <a:ext cx="2011001" cy="613110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="13335" tIns="13335" rIns="13335" bIns="13335" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="933450">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="2100" kern="1200"/>
-            <a:t>Fragmenty</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3613880" y="2299179"/>
-        <a:ext cx="2011001" cy="613110"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{BAF67EE1-29BF-4FB9-9F6C-E04E8BAB9304}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1200679" y="2682373"/>
-          <a:ext cx="2011001" cy="613110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="13335" tIns="13335" rIns="13335" bIns="13335" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="933450">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="2100" kern="1200"/>
-            <a:t>Test integracyjny</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="2100" i="1" kern="1200"/>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pl-PL" sz="2100" i="1" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="2100" i="1" kern="1200"/>
-            <a:t>ConnectionTest</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1200679" y="2682373"/>
-        <a:ext cx="2011001" cy="613110"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -5369,1934 +4767,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{4324F5F6-C4CF-44DC-98AC-EDD597E85F69}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3102259" y="4642066"/>
-          <a:ext cx="412034" cy="785127"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="206017" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="206017" y="785127"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="412034" y="785127"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3286109" y="5012463"/>
-        <a:ext cx="44333" cy="44333"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{2817B20D-B833-4EDA-8AF3-D54DBFE69C11}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3102259" y="4596346"/>
-          <a:ext cx="412034" cy="91440"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="45720"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="412034" y="45720"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3297975" y="4631765"/>
-        <a:ext cx="20601" cy="20601"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{22529796-9130-4290-AAA5-CCAF5E0AFD17}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3102259" y="3856939"/>
-          <a:ext cx="412034" cy="785127"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="785127"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="206017" y="785127"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="206017" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="412034" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3286109" y="4227336"/>
-        <a:ext cx="44333" cy="44333"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{9F3D8088-9BEC-4292-A6D2-9672C4C1A187}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="630051" y="2875530"/>
-          <a:ext cx="412034" cy="1766535"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="206017" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="206017" y="1766535"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="412034" y="1766535"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="600" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="790719" y="3713449"/>
-        <a:ext cx="90697" cy="90697"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{F7E408E5-85F9-47E6-B49D-03495C07431A}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5574467" y="3071812"/>
-          <a:ext cx="412034" cy="392563"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="206017" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="206017" y="392563"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="412034" y="392563"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5766257" y="3253866"/>
-        <a:ext cx="28455" cy="28455"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{B8F96A19-1AA5-47FD-80BA-2FDA1967DEBC}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5574467" y="2679248"/>
-          <a:ext cx="412034" cy="392563"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="392563"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="206017" y="392563"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="206017" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="412034" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5766257" y="2861303"/>
-        <a:ext cx="28455" cy="28455"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{EFB2CA65-BC22-4CDA-A8B8-1231A23A5850}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3102259" y="1894121"/>
-          <a:ext cx="412034" cy="1177690"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="206017" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="206017" y="1177690"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="412034" y="1177690"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3277084" y="2451774"/>
-        <a:ext cx="62384" cy="62384"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{AC24DD19-4F69-4CD7-948A-F2F8F2214485}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3102259" y="1894121"/>
-          <a:ext cx="412034" cy="392563"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="206017" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="206017" y="392563"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="412034" y="392563"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3294049" y="2076176"/>
-        <a:ext cx="28455" cy="28455"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{CD53BE76-636F-4F2A-B169-F5605D02BB30}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3102259" y="1501558"/>
-          <a:ext cx="412034" cy="392563"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="392563"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="206017" y="392563"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="206017" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="412034" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3294049" y="1683612"/>
-        <a:ext cx="28455" cy="28455"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{652CAEF1-56D0-40EB-AB82-2C7A0312ECBA}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3102259" y="716431"/>
-          <a:ext cx="412034" cy="1177690"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="1177690"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="206017" y="1177690"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="206017" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="412034" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3277084" y="1274084"/>
-        <a:ext cx="62384" cy="62384"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{544B8C79-D790-4AE8-827B-CD6F8A31B8CB}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="630051" y="1894121"/>
-          <a:ext cx="412034" cy="981408"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="981408"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="206017" y="981408"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="206017" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="412034" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="809458" y="2358216"/>
-        <a:ext cx="53219" cy="53219"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{FD1C9286-4B23-4DDD-8422-4314EDC1CA55}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="630051" y="1108994"/>
-          <a:ext cx="412034" cy="1766535"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="1766535"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="206017" y="1766535"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="206017" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="412034" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="600" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="790719" y="1946913"/>
-        <a:ext cx="90697" cy="90697"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{352684B4-5DFB-466E-AA42-73A1D850FB98}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="-1336898" y="2561479"/>
-          <a:ext cx="3305798" cy="628101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26035" tIns="26035" rIns="26035" bIns="26035" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1822450">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="4100" kern="1200"/>
-            <a:t>Aplikacja</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="-1336898" y="2561479"/>
-        <a:ext cx="3305798" cy="628101"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{EA32D5D9-E6D5-4922-A8DF-874CF558F996}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1042085" y="794943"/>
-          <a:ext cx="2060173" cy="628101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-            <a:t>Moduł zabezpieczenia danych</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1042085" y="794943"/>
-        <a:ext cx="2060173" cy="628101"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{0F34956D-EED5-400D-8063-E15A1A359517}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1042085" y="1580071"/>
-          <a:ext cx="2060173" cy="628101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-            <a:t>Moduł domeny</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1042085" y="1580071"/>
-        <a:ext cx="2060173" cy="628101"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{076E7B39-BBB2-426C-A0E3-52578EC2EFC5}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3514293" y="402380"/>
-          <a:ext cx="2060173" cy="628101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-            <a:t>Warstwa logiki biznesowej</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" i="1" kern="1200"/>
-            <a:t>Entities</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3514293" y="402380"/>
-        <a:ext cx="2060173" cy="628101"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{94002FEC-66C9-4C39-ABDE-41B21349318F}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3514293" y="1187507"/>
-          <a:ext cx="2060173" cy="628101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-            <a:t>Warstwa przypadków użycia</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" i="1" kern="1200"/>
-            <a:t>User stories</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3514293" y="1187507"/>
-        <a:ext cx="2060173" cy="628101"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{740EA00F-599E-431F-A8EA-CF9796E92306}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3514293" y="1972634"/>
-          <a:ext cx="2060173" cy="628101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-            <a:t>Warstwa prezenterów </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" i="1" kern="1200"/>
-            <a:t>Presenters</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3514293" y="1972634"/>
-        <a:ext cx="2060173" cy="628101"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{369E7E7F-50E1-416F-8141-40118879A41F}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3514293" y="2757761"/>
-          <a:ext cx="2060173" cy="628101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-            <a:t>Testy jednostkowe</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3514293" y="2757761"/>
-        <a:ext cx="2060173" cy="628101"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{59E7DE8E-5A5F-4CD0-8E3C-F4082B24B4C2}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5986502" y="2365198"/>
-          <a:ext cx="2060173" cy="628101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-            <a:t>Warstwa </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" i="1" kern="1200"/>
-            <a:t>User Stories</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5986502" y="2365198"/>
-        <a:ext cx="2060173" cy="628101"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{A0D6A24F-AB26-44DA-A2F8-A5ADB146DB44}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5986502" y="3150325"/>
-          <a:ext cx="2060173" cy="628101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-            <a:t>Warstwa</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" i="1" kern="1200"/>
-            <a:t>Presenters</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5986502" y="3150325"/>
-        <a:ext cx="2060173" cy="628101"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{3BF0C746-3987-4AD2-B3FF-274E363CDFD6}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1042085" y="4328015"/>
-          <a:ext cx="2060173" cy="628101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-            <a:t>Moduł prezentacji</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1042085" y="4328015"/>
-        <a:ext cx="2060173" cy="628101"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{753E158A-7453-4622-8D78-5E7B1E62A1C8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3514293" y="3542888"/>
-          <a:ext cx="2060173" cy="628101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-            <a:t>Aktywności</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3514293" y="3542888"/>
-        <a:ext cx="2060173" cy="628101"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{A464D6DC-2B9E-4AD1-AB00-F853C90B6DCE}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3514293" y="4328015"/>
-          <a:ext cx="2060173" cy="628101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-            <a:t>Fragmenty</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3514293" y="4328015"/>
-        <a:ext cx="2060173" cy="628101"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{94A30218-2A2A-48E7-9C17-68F0FC52F0A3}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3514293" y="5113142"/>
-          <a:ext cx="2060173" cy="628101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="flat" dir="t"/>
-        </a:scene3d>
-        <a:sp3d prstMaterial="dkEdge">
-          <a:bevelT w="8200" h="38100"/>
-        </a:sp3d>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" kern="1200"/>
-            <a:t>Test integracyjny </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1400" i="1" kern="1200"/>
-            <a:t>ConnectionTest</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3514293" y="5113142"/>
-        <a:ext cx="2060173" cy="628101"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -10159,6 +7629,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10268,7 +7768,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B19:E28" totalsRowShown="0" headerRowCellStyle="Złe" dataCellStyle="Złe">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B19:E28" totalsRowShown="0">
   <autoFilter ref="B19:E28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Wersja"/>
@@ -10569,8 +8069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/wykresy.xlsx
+++ b/wykresy.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="24240" windowHeight="13740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Testy jednostkowe 1" sheetId="1" r:id="rId1"/>
     <sheet name="struktura aplikacji podstawowej" sheetId="2" r:id="rId2"/>
     <sheet name="schemat aplikacji poprawionej" sheetId="3" r:id="rId3"/>
-    <sheet name="Arkusz1" sheetId="4" r:id="rId4"/>
+    <sheet name="udzial dystrybucji" sheetId="4" r:id="rId4"/>
+    <sheet name="udzial w rynku" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t xml:space="preserve">Wersja pierwotna </t>
   </si>
@@ -103,6 +104,42 @@
   </si>
   <si>
     <t>ążęćń</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Windows Phone</t>
+  </si>
+  <si>
+    <t>Symbian</t>
+  </si>
+  <si>
+    <t>Java ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackBerry </t>
+  </si>
+  <si>
+    <t>Kindle</t>
+  </si>
+  <si>
+    <t>Inne</t>
+  </si>
+  <si>
+    <t>Swiat</t>
+  </si>
+  <si>
+    <t>Nie wiem</t>
+  </si>
+  <si>
+    <t>Inny</t>
+  </si>
+  <si>
+    <t>Polska</t>
   </si>
 </sst>
 </file>
@@ -213,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -232,7 +269,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -294,11 +331,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="134089344"/>
-        <c:axId val="135160192"/>
+        <c:axId val="120945280"/>
+        <c:axId val="120951168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134089344"/>
+        <c:axId val="120945280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -307,7 +344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135160192"/>
+        <c:crossAx val="120951168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -315,7 +352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135160192"/>
+        <c:axId val="120951168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -326,7 +363,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134089344"/>
+        <c:crossAx val="120945280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -346,7 +383,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -417,11 +454,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="135179648"/>
-        <c:axId val="136320128"/>
+        <c:axId val="120970624"/>
+        <c:axId val="121242752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135179648"/>
+        <c:axId val="120970624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,7 +467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136320128"/>
+        <c:crossAx val="121242752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -438,7 +475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136320128"/>
+        <c:axId val="121242752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135179648"/>
+        <c:crossAx val="120970624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -469,7 +506,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -533,11 +570,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="136343936"/>
-        <c:axId val="136345472"/>
+        <c:axId val="121266560"/>
+        <c:axId val="121268096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136343936"/>
+        <c:axId val="121266560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136345472"/>
+        <c:crossAx val="121268096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -554,7 +591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136345472"/>
+        <c:axId val="121268096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136343936"/>
+        <c:crossAx val="121266560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -585,7 +622,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -658,11 +695,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63751680"/>
-        <c:axId val="63753216"/>
+        <c:axId val="121287808"/>
+        <c:axId val="121289344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63751680"/>
+        <c:axId val="121287808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,7 +708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63753216"/>
+        <c:crossAx val="121289344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -679,7 +716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63753216"/>
+        <c:axId val="121289344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63751680"/>
+        <c:crossAx val="121287808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -710,7 +747,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -750,7 +787,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$J$4:$J$9</c:f>
+              <c:f>'udzial dystrybucji'!$J$4:$J$9</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -776,7 +813,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$K$4:$K$9</c:f>
+              <c:f>'udzial dystrybucji'!$K$4:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -825,6 +862,290 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'udzial w rynku'!$A$1:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iOS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Windows Phone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Symbian</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Java ME</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BlackBerry </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kindle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Inne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'udzial w rynku'!$B$1:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.53539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="134432640"/>
+        <c:axId val="134431488"/>
+      </c:barChart>
+      <c:valAx>
+        <c:axId val="134431488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134432640"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="134432640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134431488"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'udzial w rynku'!$J$1:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Windows Phone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iOS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nie wiem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BlackBerry </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Inny</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'udzial w rynku'!$K$1:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="131167360"/>
+        <c:axId val="131168896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="131167360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131168896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="131168896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131167360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -7767,6 +8088,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B19:E28" totalsRowShown="0">
   <autoFilter ref="B19:E28"/>
@@ -7781,9 +8167,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7821,7 +8207,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -7893,7 +8279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8069,7 +8455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
@@ -8521,4 +8907,134 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.35580000000000001</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.15E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/wykresy.xlsx
+++ b/wykresy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="24240" windowHeight="13740" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="24240" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Testy jednostkowe 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t xml:space="preserve">Wersja pierwotna </t>
   </si>
@@ -141,6 +141,12 @@
   <si>
     <t>Polska</t>
   </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Marshmallow</t>
+  </si>
 </sst>
 </file>
 
@@ -172,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -232,11 +238,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -248,6 +280,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,11 +367,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="120945280"/>
-        <c:axId val="120951168"/>
+        <c:axId val="109939712"/>
+        <c:axId val="109945600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120945280"/>
+        <c:axId val="109939712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -344,7 +380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120951168"/>
+        <c:crossAx val="109945600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -352,7 +388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120951168"/>
+        <c:axId val="109945600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -363,7 +399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120945280"/>
+        <c:crossAx val="109939712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -454,11 +490,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="120970624"/>
-        <c:axId val="121242752"/>
+        <c:axId val="110170112"/>
+        <c:axId val="110171648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120970624"/>
+        <c:axId val="110170112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121242752"/>
+        <c:crossAx val="110171648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -475,7 +511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121242752"/>
+        <c:axId val="110171648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120970624"/>
+        <c:crossAx val="110170112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -570,11 +606,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="121266560"/>
-        <c:axId val="121268096"/>
+        <c:axId val="110203648"/>
+        <c:axId val="110205184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121266560"/>
+        <c:axId val="110203648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,7 +619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121268096"/>
+        <c:crossAx val="110205184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -591,7 +627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121268096"/>
+        <c:axId val="110205184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -602,7 +638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121266560"/>
+        <c:crossAx val="110203648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -695,11 +731,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="121287808"/>
-        <c:axId val="121289344"/>
+        <c:axId val="110222336"/>
+        <c:axId val="111350528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121287808"/>
+        <c:axId val="110222336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,7 +744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121289344"/>
+        <c:crossAx val="111350528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -716,7 +752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121289344"/>
+        <c:axId val="111350528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121287808"/>
+        <c:crossAx val="110222336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -787,9 +823,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'udzial dystrybucji'!$J$4:$J$9</c:f>
+              <c:f>'udzial dystrybucji'!$J$4:$J$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Froyo</c:v>
                 </c:pt>
@@ -808,32 +844,38 @@
                 <c:pt idx="5">
                   <c:v>Lollipop</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>Marshmallow</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'udzial dystrybucji'!$K$4:$K$9</c:f>
+              <c:f>'udzial dystrybucji'!$K$4:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5</c:v>
+                  <c:v>23.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.200000000000003</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,11 +1012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="134432640"/>
-        <c:axId val="134431488"/>
+        <c:axId val="129661952"/>
+        <c:axId val="129660416"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="134431488"/>
+        <c:axId val="129660416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,11 +1027,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134432640"/>
+        <c:crossAx val="129661952"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="134432640"/>
+        <c:axId val="129661952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +1041,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134431488"/>
+        <c:crossAx val="129660416"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1105,11 +1149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="131167360"/>
-        <c:axId val="131168896"/>
+        <c:axId val="68031232"/>
+        <c:axId val="68032768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131167360"/>
+        <c:axId val="68031232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131168896"/>
+        <c:crossAx val="68032768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1126,7 +1170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131168896"/>
+        <c:axId val="68032768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,7 +1181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131167360"/>
+        <c:crossAx val="68031232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8060,13 +8104,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8556,10 +8600,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:Q39"/>
+  <dimension ref="B4:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28:U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8579,7 +8623,7 @@
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="10:11" x14ac:dyDescent="0.25">
@@ -8587,7 +8631,7 @@
         <v>14</v>
       </c>
       <c r="K5">
-        <v>4.0999999999999996</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6" spans="10:11" x14ac:dyDescent="0.25">
@@ -8595,7 +8639,7 @@
         <v>16</v>
       </c>
       <c r="K6">
-        <v>31</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="10:11" x14ac:dyDescent="0.25">
@@ -8603,7 +8647,7 @@
         <v>20</v>
       </c>
       <c r="K7">
-        <v>4.5</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="8" spans="10:11" x14ac:dyDescent="0.25">
@@ -8611,7 +8655,7 @@
         <v>22</v>
       </c>
       <c r="K8">
-        <v>39.200000000000003</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="9" spans="10:11" x14ac:dyDescent="0.25">
@@ -8619,7 +8663,15 @@
         <v>24</v>
       </c>
       <c r="K9">
-        <v>21</v>
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>1.2</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -8787,7 +8839,7 @@
         <v>8</v>
       </c>
       <c r="P31" s="4">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
@@ -8801,76 +8853,76 @@
         <v>10</v>
       </c>
       <c r="P32" s="4">
-        <v>4.1000000000000002E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.25">
       <c r="M33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N33" s="6"/>
+      <c r="N33" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="O33" s="3">
         <v>15</v>
       </c>
       <c r="P33" s="4">
-        <v>3.6999999999999998E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="6"/>
+      <c r="O34" s="10">
         <v>16</v>
       </c>
-      <c r="O34" s="3">
-        <v>16</v>
-      </c>
       <c r="P34" s="4">
-        <v>0.121</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="35" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="3">
+      <c r="N35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="10">
         <v>17</v>
       </c>
       <c r="P35" s="4">
-        <v>0.152</v>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="36" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O36" s="3">
+      <c r="N36" s="8"/>
+      <c r="O36" s="10">
         <v>18</v>
       </c>
       <c r="P36" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="7:16" x14ac:dyDescent="0.25">
       <c r="M37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="8" t="s">
         <v>22</v>
       </c>
       <c r="O37" s="3">
         <v>19</v>
       </c>
       <c r="P37" s="4">
-        <v>0.39200000000000002</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.25">
@@ -8884,7 +8936,7 @@
         <v>21</v>
       </c>
       <c r="P38" s="4">
-        <v>0.159</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.25">
@@ -8896,7 +8948,21 @@
         <v>22</v>
       </c>
       <c r="P39" s="4">
-        <v>5.0999999999999997E-2</v>
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="M40" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O40" s="11">
+        <v>23</v>
+      </c>
+      <c r="P40" s="12">
+        <v>1.2E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8913,7 +8979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
